--- a/src/test/resources/dataprovider/invalid_driving_license/invalid_driving_license.xlsx
+++ b/src/test/resources/dataprovider/invalid_driving_license/invalid_driving_license.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22515"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22729"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D6A894-6C08-4924-826A-8992A9BA8A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{807CD689-B26D-4344-9FB5-D549924B48CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>state</t>
   </si>
@@ -37,30 +37,6 @@
   </si>
   <si>
     <t>NT</t>
-  </si>
-  <si>
-    <t>QLD</t>
-  </si>
-  <si>
-    <t>NSW</t>
-  </si>
-  <si>
-    <t>abc123456</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>abc1234</t>
-  </si>
-  <si>
-    <t>TAS</t>
-  </si>
-  <si>
-    <t>VIC</t>
-  </si>
-  <si>
-    <t>WA</t>
   </si>
 </sst>
 </file>
@@ -419,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,54 +430,6 @@
         <v>12345678900</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1234567899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>12345678900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>12345678</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
